--- a/EXCEL/plantilla_import_estudiantes.xlsx
+++ b/EXCEL/plantilla_import_estudiantes.xlsx
@@ -20,15 +20,15 @@
     <t>num_control</t>
   </si>
   <si>
+    <t>apellido_paterno</t>
+  </si>
+  <si>
+    <t>apellido_materno</t>
+  </si>
+  <si>
     <t>nombre</t>
   </si>
   <si>
-    <t>apellido_paterno</t>
-  </si>
-  <si>
-    <t>apellido_materno</t>
-  </si>
-  <si>
     <t>genero</t>
   </si>
   <si>
@@ -62,15 +62,15 @@
     <t>S23001234</t>
   </si>
   <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>López</t>
+  </si>
+  <si>
     <t>Juan</t>
   </si>
   <si>
-    <t>Perez</t>
-  </si>
-  <si>
-    <t>López</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -95,13 +95,13 @@
     <t>S23005678</t>
   </si>
   <si>
+    <t>Gómez</t>
+  </si>
+  <si>
+    <t>Hernández</t>
+  </si>
+  <si>
     <t>María</t>
-  </si>
-  <si>
-    <t>Gómez</t>
-  </si>
-  <si>
-    <t>Hernández</t>
   </si>
   <si>
     <t>F</t>
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -709,8 +709,11 @@
       <c r="M2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -749,6 +752,9 @@
       </c>
       <c r="M3" t="s">
         <v>24</v>
+      </c>
+      <c r="N3">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
